--- a/biology/Médecine/Insensibilité_congénitale_à_la_douleur/Insensibilité_congénitale_à_la_douleur.xlsx
+++ b/biology/Médecine/Insensibilité_congénitale_à_la_douleur/Insensibilité_congénitale_à_la_douleur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Insensibilit%C3%A9_cong%C3%A9nitale_%C3%A0_la_douleur</t>
+          <t>Insensibilité_congénitale_à_la_douleur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'insensibilité congénitale à la douleur (ICD), décrite pour la première fois par George Van Ness Dearborn en 1932, est une maladie rare et très grave, le plus souvent de cause génétique et de transmission autosomique récessive[1],[2]. Elle se caractérise par la perte du sens de la douleur sous toutes ses formes et sur tout le corps, avec conservation des autres sensations tactiles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'insensibilité congénitale à la douleur (ICD), décrite pour la première fois par George Van Ness Dearborn en 1932, est une maladie rare et très grave, le plus souvent de cause génétique et de transmission autosomique récessive,. Elle se caractérise par la perte du sens de la douleur sous toutes ses formes et sur tout le corps, avec conservation des autres sensations tactiles.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Insensibilit%C3%A9_cong%C3%A9nitale_%C3%A0_la_douleur</t>
+          <t>Insensibilité_congénitale_à_la_douleur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette maladie se présente dès la petite enfance par des traumatismes passant inaperçus. Les patients connaissent la différence entre la sensation du froid et du chaud, mais ne sont pas capables de ressentir la douleur (brûlure par exemple par une boisson). Cela peut être très dangereux chez les enfants. Ils se blessent souvent et ne font pas attention, ce qui a souvent pour conséquence des contusions, des fractures mais aussi des lésions au niveau des lèvres et de la langue par morsure. Les autres complications qui peuvent se présenter sont des infections, des blessures internes ou bien des déformations des articulations. En effet, une accumulation de traumatismes sur une même zone peut endommager gravement le corps, et ceci parfois de manière définitive. Ceci implique alors des opérations ou la mise en place de prothèses pour compenser.
 Des complications ostéomyélitiques de la mandibule et des extrémités sont fréquentes.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Insensibilit%C3%A9_cong%C3%A9nitale_%C3%A0_la_douleur</t>
+          <t>Insensibilité_congénitale_à_la_douleur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes sont des signes cliniques dont une personne peut se plaindre. La spécificité de cette maladie est justement l’absence de symptômes de douleur.
 Ainsi, le seul symptôme possible de cette maladie est l’incapacité du malade à percevoir la douleur sous toutes ses formes. Or, ce symptôme rend le diagnostic de la maladie très compliqué.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Insensibilit%C3%A9_cong%C3%A9nitale_%C3%A0_la_douleur</t>
+          <t>Insensibilité_congénitale_à_la_douleur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'insensibilité congénitale à la douleur se retrouve à Vittangi, un village de la municipalité de Kiruna, dans le nord de la Suède, où près de 40 cas ont été signalés[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'insensibilité congénitale à la douleur se retrouve à Vittangi, un village de la municipalité de Kiruna, dans le nord de la Suède, où près de 40 cas ont été signalés
 .
 </t>
         </is>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Insensibilit%C3%A9_cong%C3%A9nitale_%C3%A0_la_douleur</t>
+          <t>Insensibilité_congénitale_à_la_douleur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L’origine de l'insensibilité congénitale à la douleur est assez floue.
 Dans la majorité des cas recensés, la maladie est due à une mutation du gène SCN9A transmise selon le mode autosomique récessif. On connaît trois mutations du SCN9A : W897X, située sur la boucle P du domaine 2 ; I767X, sur le segment S2 du domaine 2 ; et S459X, sur la région charnière entre les domaines 1 et 2.
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Insensibilit%C3%A9_cong%C3%A9nitale_%C3%A0_la_douleur</t>
+          <t>Insensibilité_congénitale_à_la_douleur</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,7 +666,9 @@
           <t>Conséquences (dangers de la maladie)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L’insensibilité congénitale à la douleur peut avoir de lourdes conséquences sur le malade, car en l’absence de douleur, celui-ci n’est pas alarmé par son organisme des éventuels traumatismes, maladies dont il est victime. Il ne peut par conséquent réagir aussi vite qu’un individu normal pour se prendre en charge et se soigner.
 L'absence de sensations douloureuses expose à de nombreux dangers avec des risques de traumatismes passant inaperçus, surtout chez le nourrisson et le jeune enfant. En effet les gestes les plus anodins de la vie quotidienne peuvent conduire à des blessures diverses plus ou moins profondes. Le diagnostic de la plupart des maladies est rendu difficile chez ces personnes du fait de l'absence du symptôme d'alarme le plus commun qu'est la douleur.
@@ -663,7 +685,7 @@
 Lésions de frottement au niveau des ongles de pieds ;
 Soupçons de maltraitances des parents chez ces enfants ;
 etc.
-Les accidents et complications liés à cette maladie engendrent une espérance de vie en dessous de la moyenne[2].
+Les accidents et complications liés à cette maladie engendrent une espérance de vie en dessous de la moyenne.
 </t>
         </is>
       </c>
@@ -674,7 +696,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Insensibilit%C3%A9_cong%C3%A9nitale_%C3%A0_la_douleur</t>
+          <t>Insensibilité_congénitale_à_la_douleur</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -692,7 +714,9 @@
           <t>Prise en charge de la maladie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n’existe pas à proprement parler de traitement. Si la maladie est due à une production excessive d'endorphine, un traitement par la naloxone peut être adopté. Son rôle est de réactiver la propagation du message douloureux jusqu'au cerveau. Le seuil nécessaire pour faire naître la douleur sera donc diminué. Cependant, ce traitement n’est pas efficace dans tous les cas.
 Le seul moyen afin de contrer cette maladie est la prévention et l’éducation du patient par l’intermédiaire d’un ergothérapeute. En effet, afin de prendre au mieux en charge celui-ci, il lui est très recommandé de faire des visites médicales afin de vérifier qu’il ne s’est rien cassé, ou qu’il n’a pas de traumatisme particulier. De plus, informer la famille et les proches n’est pas à négliger, car cela va leur permettre de l’aider à appréhender l’environnement comme s’il connaissait les zones de danger. La prévention à propos des complications tels que les infections et le traitement symptomatique des lésions est de plus nécessaire afin d’expliquer les enjeux. Dans des cas extrêmes, les dents de lait de l'enfant sont extraites. Cela permet de prévenir l'automutilation de la langue, les lèvres et les doigts jusqu'à ce qu'ils aient leurs dents d'adulte et soient en âge de comprendre et apprendre.
@@ -708,7 +732,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Insensibilit%C3%A9_cong%C3%A9nitale_%C3%A0_la_douleur</t>
+          <t>Insensibilité_congénitale_à_la_douleur</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -726,9 +750,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Cette maladie porte différentes dénominations[4] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cette maladie porte différentes dénominations :
 analgésie congénitale ;
 analgie congénitale ;
 indifférence congénitale à la douleur ;
@@ -742,7 +768,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Insensibilit%C3%A9_cong%C3%A9nitale_%C3%A0_la_douleur</t>
+          <t>Insensibilité_congénitale_à_la_douleur</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -760,7 +786,9 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Le roman L'Insensible (1991), de Claude D. Markus, raconte l'histoire d'un enfant (Donatien Gallien) né insensible à la douleur à la fin du XIXe siècle.
 Dans le film Détour mortel 4, on apprend au début du film que les cannibales qui dévoreront 30 ans plus tard les personnages du film sont atteints de cette maladie.
